--- a/outputs-r202/test-o__UBA1407.xlsx
+++ b/outputs-r202/test-o__UBA1407.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
   <si>
     <t>Row</t>
   </si>
@@ -202,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -212,14 +212,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,65 +248,65 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.056363846934473917</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.94363615306541504</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -331,65 +335,65 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2199769270225407e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="C4">
-        <v>2.2199769270225407e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="D4">
-        <v>2.2199769270225407e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="E4">
-        <v>2.2199769270225407e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="F4">
+        <v>0.2955485773699365</v>
+      </c>
+      <c r="G4">
+        <v>0.70445142262737148</v>
+      </c>
+      <c r="H4">
+        <v>5.3839383765027493e-13</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.2199769270225407e-14</v>
+      </c>
+      <c r="C5">
+        <v>2.2199769270225407e-14</v>
+      </c>
+      <c r="D5">
+        <v>2.2199769270225407e-14</v>
+      </c>
+      <c r="E5">
+        <v>2.2199769270225407e-14</v>
+      </c>
+      <c r="F5">
         <v>0.056363846934473917</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>0.94363615306541504</v>
       </c>
-      <c r="H4">
-        <v>2.2199769270225407e-14</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="I5">
         <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -418,36 +422,36 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.2199284929696948e-14</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.019358186688294081</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2.2199284929696948e-14</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.2199284929696948e-14</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.2199284929696948e-14</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.98064181331159506</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.2199284929696948e-14</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -476,7 +480,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -505,94 +509,94 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.056363846934474181</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.2199769270225407e-14</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2.2199769270225407e-14</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2.2199769270225407e-14</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2.2199769270225407e-14</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.94363615306541482</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>2.2199769270225407e-14</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>6</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.056363846934473917</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.94363615306541504</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="I11">
         <v>6</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5.383938376502717e-13</v>
+        <v>7.9529603962629095e-14</v>
       </c>
       <c r="C12">
-        <v>5.383938376502717e-13</v>
+        <v>0.1038640533848449</v>
       </c>
       <c r="D12">
-        <v>5.383938376502717e-13</v>
+        <v>7.9529603962629146e-14</v>
       </c>
       <c r="E12">
-        <v>5.383938376502717e-13</v>
+        <v>7.9529603962629108e-14</v>
       </c>
       <c r="F12">
-        <v>0.2955485773699365</v>
+        <v>0.23181242987306372</v>
       </c>
       <c r="G12">
-        <v>0.70445142262737148</v>
+        <v>0.66432351674177337</v>
       </c>
       <c r="H12">
-        <v>5.3839383765027493e-13</v>
+        <v>7.9529603962629133e-14</v>
       </c>
       <c r="I12">
         <v>6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -621,7 +625,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -650,7 +654,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -679,7 +683,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -708,7 +712,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -737,7 +741,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -766,65 +770,65 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.056363846934473917</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0.94363615306541504</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="I19">
         <v>6</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.056363846934473917</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.94363615306541504</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="I20">
         <v>6</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -853,7 +857,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -882,7 +886,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -911,7 +915,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -940,36 +944,36 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.056363846934473917</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0.94363615306541504</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="I25">
         <v>6</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -998,7 +1002,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1027,7 +1031,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1056,65 +1060,65 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.29554857736993667</v>
+        <v>0.23181242987306383</v>
       </c>
       <c r="C29">
-        <v>5.3839383765027382e-13</v>
+        <v>0.10386405338484499</v>
       </c>
       <c r="D29">
-        <v>5.3839383765027382e-13</v>
+        <v>7.9529603962629032e-14</v>
       </c>
       <c r="E29">
-        <v>5.3839383765027352e-13</v>
+        <v>7.9529603962628956e-14</v>
       </c>
       <c r="F29">
-        <v>5.3839383765027382e-13</v>
+        <v>7.9529603962629032e-14</v>
       </c>
       <c r="G29">
-        <v>0.70445142262737126</v>
+        <v>0.66432351674177326</v>
       </c>
       <c r="H29">
-        <v>5.3839383765027352e-13</v>
+        <v>7.9529603962628994e-14</v>
       </c>
       <c r="I29">
         <v>6</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.056363846934473917</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0.94363615306541504</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="I30">
         <v>6</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1143,36 +1147,36 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2.2214674962632923e-14</v>
+        <v>7.9529603962629095e-14</v>
       </c>
       <c r="C32">
-        <v>0.015275315090749007</v>
+        <v>0.1038640533848449</v>
       </c>
       <c r="D32">
-        <v>2.2214674962632923e-14</v>
+        <v>7.9529603962629146e-14</v>
       </c>
       <c r="E32">
-        <v>2.2214674962632923e-14</v>
+        <v>7.9529603962629108e-14</v>
       </c>
       <c r="F32">
-        <v>0.059465537158551518</v>
+        <v>0.23181242987306372</v>
       </c>
       <c r="G32">
-        <v>0.92525914775061069</v>
+        <v>0.66432351674177337</v>
       </c>
       <c r="H32">
-        <v>2.2214674962632923e-14</v>
+        <v>7.9529603962629133e-14</v>
       </c>
       <c r="I32">
         <v>6</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -1201,7 +1205,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1230,7 +1234,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1259,65 +1263,65 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2.2214674962632923e-14</v>
+        <v>7.9529603962629095e-14</v>
       </c>
       <c r="C36">
-        <v>0.015275315090749007</v>
+        <v>0.1038640533848449</v>
       </c>
       <c r="D36">
-        <v>2.2214674962632923e-14</v>
+        <v>7.9529603962629146e-14</v>
       </c>
       <c r="E36">
-        <v>2.2214674962632923e-14</v>
+        <v>7.9529603962629108e-14</v>
       </c>
       <c r="F36">
-        <v>0.059465537158551518</v>
+        <v>0.23181242987306372</v>
       </c>
       <c r="G36">
-        <v>0.92525914775061069</v>
+        <v>0.66432351674177337</v>
       </c>
       <c r="H36">
-        <v>2.2214674962632923e-14</v>
+        <v>7.9529603962629133e-14</v>
       </c>
       <c r="I36">
         <v>6</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2.2199769270225407e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="C37">
-        <v>2.2199769270225407e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="D37">
-        <v>2.2199769270225407e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="E37">
-        <v>2.2199769270225407e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="F37">
-        <v>0.056363846934473917</v>
+        <v>0.2955485773699365</v>
       </c>
       <c r="G37">
-        <v>0.94363615306541504</v>
+        <v>0.70445142262737148</v>
       </c>
       <c r="H37">
-        <v>2.2199769270225407e-14</v>
+        <v>5.3839383765027493e-13</v>
       </c>
       <c r="I37">
         <v>6</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1346,7 +1350,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1375,65 +1379,65 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>0.056363846934473917</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0.94363615306541504</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2.2199769270225407e-14</v>
       </c>
       <c r="I40">
         <v>6</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2.2214674962632923e-14</v>
+        <v>0.05348395133579003</v>
       </c>
       <c r="C41">
-        <v>0.015275315090749007</v>
+        <v>0.015095351944500334</v>
       </c>
       <c r="D41">
-        <v>2.2214674962632923e-14</v>
+        <v>2.2314867861420829e-14</v>
       </c>
       <c r="E41">
-        <v>2.2214674962632923e-14</v>
+        <v>2.2314867861420829e-14</v>
       </c>
       <c r="F41">
-        <v>0.059465537158551518</v>
+        <v>0.053483951335790009</v>
       </c>
       <c r="G41">
-        <v>0.92525914775061069</v>
+        <v>0.87793674538385269</v>
       </c>
       <c r="H41">
-        <v>2.2214674962632923e-14</v>
+        <v>2.2314867861420829e-14</v>
       </c>
       <c r="I41">
         <v>6</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1462,7 +1466,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1491,7 +1495,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1520,7 +1524,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1549,7 +1553,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1578,36 +1582,36 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2.2199769270225407e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="C47">
-        <v>2.2199769270225407e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="D47">
-        <v>2.2199769270225407e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="E47">
-        <v>2.2199769270225407e-14</v>
+        <v>5.383938376502717e-13</v>
       </c>
       <c r="F47">
-        <v>0.056363846934473917</v>
+        <v>0.2955485773699365</v>
       </c>
       <c r="G47">
-        <v>0.94363615306541504</v>
+        <v>0.70445142262737148</v>
       </c>
       <c r="H47">
-        <v>2.2199769270225407e-14</v>
+        <v>5.3839383765027493e-13</v>
       </c>
       <c r="I47">
         <v>6</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B48">
